--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -64,13 +64,10 @@
     <t xml:space="preserve">Gemini2.0 Flash</t>
   </si>
   <si>
-    <t xml:space="preserve">Qwen2.5VL 72B</t>
+    <t xml:space="preserve">Qwen2.5 VL 32B</t>
   </si>
   <si>
     <t xml:space="preserve">推理模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QvQ-72B-preview</t>
   </si>
   <si>
     <t xml:space="preserve">OpenAI o1</t>
@@ -205,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,7 +215,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,15 +227,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,7 +494,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,8 +505,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="9.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -600,7 +593,7 @@
       <c r="H4" s="1" t="n">
         <v>62.1</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -629,7 +622,7 @@
       <c r="H5" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>38.3</v>
       </c>
     </row>
@@ -658,7 +651,7 @@
       <c r="H6" s="1" t="n">
         <v>73.1</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>41.3</v>
       </c>
     </row>
@@ -667,28 +660,17 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>91.2</v>
+        <v>49.5</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>96.4</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>84.4</v>
-      </c>
+        <v>94.8</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>38.1</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,127 +684,42 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>70.3</v>
+        <v>77.3</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>71.4</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>35.9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>77.3</v>
-      </c>
       <c r="H10" s="1" t="n">
-        <v>71</v>
+        <v>63.8</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="H11" s="1" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1" t="n">
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="H16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="H18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="H22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="H23" s="0"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -67,13 +67,16 @@
     <t xml:space="preserve">Qwen2.5 VL 32B</t>
   </si>
   <si>
+    <t xml:space="preserve">Llama4 Scout 109b a17b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama4 Maverick 402b a17b</t>
+  </si>
+  <si>
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
     <t xml:space="preserve">OpenAI o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Align DS V</t>
   </si>
   <si>
     <t xml:space="preserve">Skywork R1V 38B</t>
@@ -494,12 +497,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9"/>
@@ -674,52 +677,76 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="1" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H11" s="1" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>67.5</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -67,10 +67,7 @@
     <t xml:space="preserve">Qwen2.5 VL 32B</t>
   </si>
   <si>
-    <t xml:space="preserve">Llama4 Scout 109b a17b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama4 Maverick 402b a17b</t>
+    <t xml:space="preserve">Mistral Small3.1</t>
   </si>
   <si>
     <t xml:space="preserve">推理模型</t>
@@ -497,7 +494,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,72 +678,52 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>69.4</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>94.4</v>
+        <v>62.8</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>49.3</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="n">
-        <v>70.7</v>
+        <v>68.9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>73.4</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>94.4</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="1" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>77.3</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1" t="n">
         <v>67.5</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">Mistral Small3.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Kimi VL 16b a3b</t>
+  </si>
+  <si>
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Skywork R1V 38B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimi VL Thinking 16b a3b</t>
   </si>
 </sst>
 </file>
@@ -494,12 +500,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9"/>
@@ -689,41 +695,74 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H11" s="1" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>67.5</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -55,7 +55,10 @@
     <t xml:space="preserve">Doubao 1.5pro</t>
   </si>
   <si>
-    <t xml:space="preserve">GPT-4o</t>
+    <t xml:space="preserve">GPT4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPT4.1 Mini</t>
   </si>
   <si>
     <t xml:space="preserve">Claude-3.5-Sonnet</t>
@@ -67,19 +70,16 @@
     <t xml:space="preserve">Qwen2.5 VL 32B</t>
   </si>
   <si>
-    <t xml:space="preserve">Mistral Small3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kimi VL 16b a3b</t>
   </si>
   <si>
+    <t xml:space="preserve">InternVL3 8B</t>
+  </si>
+  <si>
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
     <t xml:space="preserve">OpenAI o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skywork R1V 38B</t>
   </si>
   <si>
     <t xml:space="preserve">Kimi VL Thinking 16b a3b</t>
@@ -500,7 +500,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,28 +579,11 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>88.1</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>83.1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>30.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,28 +591,11 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="n">
-        <v>65.4</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>38.3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,28 +603,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>70.6</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>57</v>
+        <v>54.7</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>88.3</v>
+        <v>90.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>92.9</v>
+        <v>94.2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>85.1</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>73.1</v>
+        <v>65.4</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>41.3</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,17 +632,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>70</v>
+        <v>70.6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>49.5</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>88.3</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>92.9</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>85.1</v>
+      </c>
       <c r="H7" s="1" t="n">
-        <v>74.7</v>
+        <v>73.1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,14 +661,17 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>62.8</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>94.8</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="n">
-        <v>68.9</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,45 +695,57 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="1" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>86.6</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>71</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>67.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>61.7</v>
       </c>
       <c r="H13" s="1" t="n">

--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenAI o1</t>
+    <t xml:space="preserve">OpenAI o4 mini</t>
   </si>
   <si>
     <t xml:space="preserve">Kimi VL Thinking 16b a3b</t>
@@ -500,7 +500,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -735,10 +735,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>77.3</v>
+        <v>81.6</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>71</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/files/多模态模型.xlsx
+++ b/files/多模态模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kimi VL Thinking 16b a3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skywork R1V2 38b</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.19"/>
@@ -755,6 +758,23 @@
         <v>36.8</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
